--- a/Projekt2_Liczby_Pierwsze/Projekt2-dane.xlsx
+++ b/Projekt2_Liczby_Pierwsze/Projekt2-dane.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Number</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>PrimeNumbersPositive - Instr</t>
+  </si>
+  <si>
+    <t>PrimeNumbersOptimal - Time</t>
+  </si>
+  <si>
+    <t>PrimeNumbersOptimal - Instr</t>
   </si>
 </sst>
 </file>
@@ -396,7 +402,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,6 +410,7 @@
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" customWidth="1"/>
@@ -422,7 +429,9 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
@@ -436,7 +445,9 @@
       <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -449,6 +460,9 @@
       <c r="C3" s="6">
         <v>0</v>
       </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -461,6 +475,9 @@
       <c r="C4" s="6">
         <v>0</v>
       </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -473,6 +490,9 @@
       <c r="C5" s="6">
         <v>0</v>
       </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -485,6 +505,9 @@
       <c r="C6" s="6">
         <v>0</v>
       </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -497,6 +520,9 @@
       <c r="C7" s="6">
         <v>2</v>
       </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -507,6 +533,9 @@
       <c r="C8" s="6">
         <v>6</v>
       </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -516,6 +545,9 @@
       <c r="B9" s="4"/>
       <c r="C9" s="6">
         <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>15</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -546,7 +578,9 @@
       <c r="C13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -559,7 +593,9 @@
       <c r="C14" s="6">
         <v>159</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="6">
+        <v>108</v>
+      </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -572,6 +608,9 @@
       <c r="C15" s="6">
         <v>502</v>
       </c>
+      <c r="D15" s="6">
+        <v>337</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -584,6 +623,9 @@
       <c r="C16" s="6">
         <v>1588</v>
       </c>
+      <c r="D16" s="6">
+        <v>1061</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -596,6 +638,9 @@
       <c r="C17" s="6">
         <v>5023</v>
       </c>
+      <c r="D17" s="6">
+        <v>3351</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -608,6 +653,9 @@
       <c r="C18" s="6">
         <v>15883</v>
       </c>
+      <c r="D18" s="6">
+        <v>10591</v>
+      </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -620,6 +668,9 @@
       <c r="C19" s="6">
         <v>50228</v>
       </c>
+      <c r="D19" s="6">
+        <v>33487</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -632,6 +683,9 @@
       <c r="C20" s="6">
         <v>158835</v>
       </c>
+      <c r="D20" s="6">
+        <v>105892</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -643,6 +697,9 @@
       </c>
       <c r="C21" s="6">
         <v>502280</v>
+      </c>
+      <c r="D21" s="6">
+        <v>334855</v>
       </c>
       <c r="E21" s="1"/>
     </row>

--- a/Projekt2_Liczby_Pierwsze/Projekt2-dane.xlsx
+++ b/Projekt2_Liczby_Pierwsze/Projekt2-dane.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programowanie\C#\Algorytmy\Projekt2_Liczby_Pierwsze\Projekt2_Liczby_Pierwsze\"/>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Wyniki" sheetId="1" r:id="rId1"/>
+    <sheet name="Obliczenia" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Number</t>
   </si>
   <si>
-    <t>BRAKUJE DWÓCH WYNIKÓW</t>
-  </si>
-  <si>
     <t>PrimeNumbersPositive - Time</t>
   </si>
   <si>
@@ -44,17 +42,91 @@
     <t>PrimeNumbersPositive - Instr</t>
   </si>
   <si>
-    <t>PrimeNumbersOptimal - Time</t>
-  </si>
-  <si>
-    <t>PrimeNumbersOptimal - Instr</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>n = a*p + b</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>wynik funkcji LINEST() z danych liczb 1-7</t>
+  </si>
+  <si>
+    <t>wynik funkcji LINEST() z danych liczb 1-6</t>
+  </si>
+  <si>
+    <t>&lt;-- współczynnik b</t>
+  </si>
+  <si>
+    <t>współczynnik a --&gt;</t>
+  </si>
+  <si>
+    <t>wynik funkcji LINEST() z danych liczb 1-8</t>
+  </si>
+  <si>
+    <t>wsp. wyznaczania --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;-- błąd oceny Y</t>
+  </si>
+  <si>
+    <t>PrimeNumbersDivisibilityForm - Time</t>
+  </si>
+  <si>
+    <t>PrimeNumbersDivisibilityForm - Instr</t>
+  </si>
+  <si>
+    <t>PrimeNumbersDivisibility235 - Time</t>
+  </si>
+  <si>
+    <t>PrimeNumbersDivisibility235 - Instr</t>
+  </si>
+  <si>
+    <t>PrimeNumbersDivisibilityForm235 - Time</t>
+  </si>
+  <si>
+    <t>PrimeNumbersDivisibilityForm235 - Instr</t>
+  </si>
+  <si>
+    <t>Test na zbiorze liczbowym składającym się z ośmiu cyfr podanych w projekcie</t>
+  </si>
+  <si>
+    <t>PrimeNumbersErastotenes - Time</t>
+  </si>
+  <si>
+    <t>PrimeNumbersErastotenes - Instr</t>
+  </si>
+  <si>
+    <t>PrimeNumbers - InstrEx</t>
+  </si>
+  <si>
+    <t>PrimeNumbersDivisibilityForm - InstrEx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="9">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0000000\ _z_ł_-;\-* #,##0.0000000\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000000000000000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +145,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -82,15 +170,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -98,13 +210,181 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -112,15 +392,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -179,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,7 +578,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,317 +763,892 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>100913</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1009139</v>
+      </c>
+      <c r="B4" s="11">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>10091401</v>
+      </c>
+      <c r="B5" s="11">
+        <v>112</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>100914061</v>
+      </c>
+      <c r="B6" s="11">
+        <v>848</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>1009140611</v>
+      </c>
+      <c r="B7" s="11">
+        <v>6846</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>10091406133</v>
+      </c>
+      <c r="B8" s="11">
+        <v>115794</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>100914061337</v>
+      </c>
+      <c r="B9" s="38">
+        <f>Obliczenia!D6</f>
+        <v>1162681.1220113561</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1009140613399</v>
+      </c>
+      <c r="B10" s="38">
+        <f>Obliczenia!D7</f>
+        <v>11635323.345258987</v>
+      </c>
+      <c r="C10" s="4">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>100913</v>
+      </c>
+      <c r="B12" s="4">
+        <v>25228</v>
+      </c>
+      <c r="C12" s="4">
+        <v>159</v>
+      </c>
+      <c r="D12" s="4">
+        <v>108</v>
+      </c>
+      <c r="E12" s="4">
+        <v>167</v>
+      </c>
+      <c r="F12" s="4">
+        <v>115</v>
+      </c>
+      <c r="G12" s="42">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1009139</v>
+      </c>
+      <c r="B13" s="4">
+        <v>252284</v>
+      </c>
+      <c r="C13" s="4">
+        <v>502</v>
+      </c>
+      <c r="D13" s="4">
+        <v>337</v>
+      </c>
+      <c r="E13" s="4">
+        <v>511</v>
+      </c>
+      <c r="F13" s="4">
+        <v>345</v>
+      </c>
+      <c r="G13" s="43">
+        <v>168</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>10091401</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2522850</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1588</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1061</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1598</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1070</v>
+      </c>
+      <c r="G14" s="42">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>100914061</v>
+      </c>
+      <c r="B15" s="4">
+        <v>25228515</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5023</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3351</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5034</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3361</v>
+      </c>
+      <c r="G15" s="42">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>1009140611</v>
+      </c>
+      <c r="B16" s="4">
+        <v>252285152</v>
+      </c>
+      <c r="C16" s="4">
+        <v>15883</v>
+      </c>
+      <c r="D16" s="4">
+        <v>10591</v>
+      </c>
+      <c r="E16" s="4">
+        <v>15895</v>
+      </c>
+      <c r="F16" s="4">
+        <v>10602</v>
+      </c>
+      <c r="G16" s="42">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>10091406133</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2522851533</v>
+      </c>
+      <c r="C17" s="4">
+        <v>50228</v>
+      </c>
+      <c r="D17" s="4">
+        <v>33487</v>
+      </c>
+      <c r="E17" s="4">
+        <v>50241</v>
+      </c>
+      <c r="F17" s="4">
+        <v>33499</v>
+      </c>
+      <c r="G17" s="42">
+        <v>9628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>100914061337</v>
+      </c>
+      <c r="B18" s="4">
+        <v>25228515334</v>
+      </c>
+      <c r="C18" s="4">
+        <v>158835</v>
+      </c>
+      <c r="D18" s="4">
+        <v>105892</v>
+      </c>
+      <c r="E18" s="4">
+        <v>158849</v>
+      </c>
+      <c r="F18" s="4">
+        <v>105905</v>
+      </c>
+      <c r="G18" s="42">
+        <v>27411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>1009140613399</v>
+      </c>
+      <c r="B19" s="40">
+        <v>252285153349</v>
+      </c>
+      <c r="C19" s="4">
+        <v>502280</v>
+      </c>
+      <c r="D19" s="4">
+        <v>334855</v>
+      </c>
+      <c r="E19" s="4">
+        <v>502295</v>
+      </c>
+      <c r="F19" s="4">
+        <v>334869</v>
+      </c>
+      <c r="G19" s="42">
+        <v>78840</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>100913</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="4">
+        <v>637</v>
+      </c>
+      <c r="D21" s="4">
+        <v>914</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>1009139</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="4">
+        <v>2009</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2860</v>
+      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>10091401</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="4">
+        <v>6353</v>
+      </c>
+      <c r="D23" s="4">
+        <v>9014</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>100914061</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="4">
+        <v>20093</v>
+      </c>
+      <c r="D24" s="4">
+        <v>28479</v>
+      </c>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>1009140611</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="4">
+        <v>63533</v>
+      </c>
+      <c r="D25" s="44">
+        <v>90019</v>
+      </c>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>10091406133</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="4">
+        <v>200913</v>
+      </c>
+      <c r="D26" s="4">
+        <v>284635</v>
+      </c>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>100914061337</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="4">
+        <v>635341</v>
+      </c>
+      <c r="D27" s="4">
+        <v>900078</v>
+      </c>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>1009140613399</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="4">
+        <v>2009121</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2846263</v>
+      </c>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>100913</v>
-      </c>
-      <c r="B2" s="6">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1009139</v>
-      </c>
-      <c r="B3" s="6">
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="13">
+        <f t="array" ref="C3:D3">LINEST(Wyniki!B3:B8,Wyniki!A3:A8,TRUE)</f>
+        <v>1.1530869912876889E-5</v>
+      </c>
+      <c r="D3" s="12">
+        <v>-945.79164567040789</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="47"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="25">
+        <v>100914061337</v>
+      </c>
+      <c r="D6" s="26">
+        <f>C6*$C$3+$D$3</f>
+        <v>1162681.1220113561</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="6">
+        <v>1009140613399</v>
+      </c>
+      <c r="D7" s="17">
+        <f>C7*$C$3+$D$3</f>
+        <v>11635323.345258987</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="30">
+        <f t="array" ref="C16:D20">LINEST(Wyniki!B3:B8,Wyniki!A3:A8,TRUE,TRUE)</f>
+        <v>1.1530869912876889E-5</v>
+      </c>
+      <c r="D16" s="35">
+        <v>-945.79164567040789</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="20">
+        <v>2.3440462403271953E-7</v>
+      </c>
+      <c r="D17" s="19">
+        <v>970.56502472175293</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>10091401</v>
-      </c>
-      <c r="B4" s="6">
-        <v>112</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>100914061</v>
-      </c>
-      <c r="B5" s="6">
-        <v>848</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>1009140611</v>
-      </c>
-      <c r="B6" s="6">
-        <v>6846</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>10091406133</v>
-      </c>
-      <c r="B7" s="6">
-        <v>115794</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>100914061337</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6">
+      <c r="C18" s="32">
+        <v>0.99834974557113931</v>
+      </c>
+      <c r="D18" s="34">
+        <v>2121.4740376779105</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="18">
+        <v>2419.8686653678387</v>
+      </c>
+      <c r="D19" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="27">
+        <v>10890986972.463169</v>
+      </c>
+      <c r="D20" s="28">
+        <v>18002608.370165668</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="49"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="30">
+        <f t="array" ref="C22:D26">LINEST(Wyniki!B3:B9,Wyniki!A3:A9,TRUE,TRUE)</f>
+        <v>1.1530869912876891E-5</v>
+      </c>
+      <c r="D22" s="36">
+        <v>-945.79164567039697</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="21">
+        <v>2.0592886264851487E-8</v>
+      </c>
+      <c r="D23" s="19">
+        <v>789.4093908882345</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="33">
+        <v>0.99998405320632522</v>
+      </c>
+      <c r="D24" s="34">
+        <v>1897.5040642994973</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="15">
+        <v>313537.65327225259</v>
+      </c>
+      <c r="D25" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="27">
+        <v>1128899116232.2239</v>
+      </c>
+      <c r="D26" s="28">
+        <v>18002608.370165553</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="51"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="31">
+        <f t="array" ref="C28:D32">LINEST(Wyniki!B3:B10,Wyniki!A3:A10,TRUE,TRUE)</f>
+        <v>1.1530869912876889E-5</v>
+      </c>
+      <c r="D28" s="37">
+        <v>-945.79164567054249</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="22">
+        <v>1.8554930588733961E-9</v>
+      </c>
+      <c r="D29" s="19">
+        <v>665.34734497929253</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="33">
+        <v>0.9999998446376771</v>
+      </c>
+      <c r="D30" s="34">
+        <v>1732.1762982908167</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="15">
+        <v>38619395.991000496</v>
+      </c>
+      <c r="D31" s="29">
         <v>6</v>
       </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>1009140613399</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="6">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>100913</v>
-      </c>
-      <c r="B14" s="6">
-        <v>25228</v>
-      </c>
-      <c r="C14" s="6">
-        <v>159</v>
-      </c>
-      <c r="D14" s="6">
-        <v>108</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>1009139</v>
-      </c>
-      <c r="B15" s="6">
-        <v>252284</v>
-      </c>
-      <c r="C15" s="6">
-        <v>502</v>
-      </c>
-      <c r="D15" s="6">
-        <v>337</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>10091401</v>
-      </c>
-      <c r="B16" s="6">
-        <v>2522850</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1588</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1061</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>100914061</v>
-      </c>
-      <c r="B17" s="6">
-        <v>25228515</v>
-      </c>
-      <c r="C17" s="6">
-        <v>5023</v>
-      </c>
-      <c r="D17" s="6">
-        <v>3351</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>1009140611</v>
-      </c>
-      <c r="B18" s="6">
-        <v>252285152</v>
-      </c>
-      <c r="C18" s="6">
-        <v>15883</v>
-      </c>
-      <c r="D18" s="6">
-        <v>10591</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>10091406133</v>
-      </c>
-      <c r="B19" s="6">
-        <v>2522851533</v>
-      </c>
-      <c r="C19" s="6">
-        <v>50228</v>
-      </c>
-      <c r="D19" s="6">
-        <v>33487</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>100914061337</v>
-      </c>
-      <c r="B20" s="6">
-        <v>25228515334</v>
-      </c>
-      <c r="C20" s="6">
-        <v>158835</v>
-      </c>
-      <c r="D20" s="6">
-        <v>105892</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>1009140613399</v>
-      </c>
-      <c r="B21" s="6">
-        <v>252285153349</v>
-      </c>
-      <c r="C21" s="6">
-        <v>502280</v>
-      </c>
-      <c r="D21" s="6">
-        <v>334855</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E22" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J25" s="3"/>
+    </row>
+    <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="27">
+        <v>115874976919703.25</v>
+      </c>
+      <c r="D32" s="28">
+        <v>18002608.37016286</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C27:D27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>